--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.10654255261182</v>
+        <v>3.147722666666667</v>
       </c>
       <c r="N2">
-        <v>3.10654255261182</v>
+        <v>9.443168</v>
       </c>
       <c r="O2">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="P2">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="Q2">
-        <v>172.5966920873602</v>
+        <v>194.6698076663075</v>
       </c>
       <c r="R2">
-        <v>172.5966920873602</v>
+        <v>1752.028268996768</v>
       </c>
       <c r="S2">
-        <v>0.007427009324307276</v>
+        <v>0.007298285009110933</v>
       </c>
       <c r="T2">
-        <v>0.007427009324307276</v>
+        <v>0.007298285009110931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41233640656651</v>
+        <v>2.413674</v>
       </c>
       <c r="N3">
-        <v>2.41233640656651</v>
+        <v>7.241022</v>
       </c>
       <c r="O3">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="P3">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="Q3">
-        <v>134.0272270293654</v>
+        <v>149.272824548658</v>
       </c>
       <c r="R3">
-        <v>134.0272270293654</v>
+        <v>1343.455420937922</v>
       </c>
       <c r="S3">
-        <v>0.005767326434937181</v>
+        <v>0.005596325545965344</v>
       </c>
       <c r="T3">
-        <v>0.005767326434937181</v>
+        <v>0.005596325545965342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.63432122202604</v>
+        <v>4.645246</v>
       </c>
       <c r="N4">
-        <v>4.63432122202604</v>
+        <v>13.935738</v>
       </c>
       <c r="O4">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="P4">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="Q4">
-        <v>257.4786919688124</v>
+        <v>287.2836145823154</v>
       </c>
       <c r="R4">
-        <v>257.4786919688124</v>
+        <v>2585.552531240838</v>
       </c>
       <c r="S4">
-        <v>0.01107956718599739</v>
+        <v>0.01077043082748264</v>
       </c>
       <c r="T4">
-        <v>0.01107956718599739</v>
+        <v>0.01077043082748264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.94779648898913</v>
+        <v>2.400438333333334</v>
       </c>
       <c r="N5">
-        <v>1.94779648898913</v>
+        <v>7.201315000000001</v>
       </c>
       <c r="O5">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="P5">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="Q5">
-        <v>108.2178097242713</v>
+        <v>148.4542693717295</v>
       </c>
       <c r="R5">
-        <v>108.2178097242713</v>
+        <v>1336.088424345565</v>
       </c>
       <c r="S5">
-        <v>0.004656721239312407</v>
+        <v>0.005565637433368305</v>
       </c>
       <c r="T5">
-        <v>0.004656721239312407</v>
+        <v>0.005565637433368304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.692856364217778</v>
+        <v>0.992483</v>
       </c>
       <c r="N6">
-        <v>0.692856364217778</v>
+        <v>2.977449</v>
       </c>
       <c r="O6">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="P6">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="Q6">
-        <v>38.49447240152016</v>
+        <v>61.37976409677767</v>
       </c>
       <c r="R6">
-        <v>38.49447240152016</v>
+        <v>552.417876870999</v>
       </c>
       <c r="S6">
-        <v>0.001656455879905688</v>
+        <v>0.00230116327508865</v>
       </c>
       <c r="T6">
-        <v>0.001656455879905688</v>
+        <v>0.00230116327508865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.10654255261182</v>
+        <v>3.147722666666667</v>
       </c>
       <c r="N7">
-        <v>3.10654255261182</v>
+        <v>9.443168</v>
       </c>
       <c r="O7">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="P7">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="Q7">
-        <v>4229.170785661934</v>
+        <v>4285.243753416864</v>
       </c>
       <c r="R7">
-        <v>4229.170785661934</v>
+        <v>38567.19378075178</v>
       </c>
       <c r="S7">
-        <v>0.1819854742250844</v>
+        <v>0.1606562960166805</v>
       </c>
       <c r="T7">
-        <v>0.1819854742250844</v>
+        <v>0.1606562960166805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41233640656651</v>
+        <v>2.413674</v>
       </c>
       <c r="N8">
-        <v>2.41233640656651</v>
+        <v>7.241022</v>
       </c>
       <c r="O8">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="P8">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="Q8">
-        <v>3284.095576692586</v>
+        <v>3285.925262989505</v>
       </c>
       <c r="R8">
-        <v>3284.095576692586</v>
+        <v>29573.32736690555</v>
       </c>
       <c r="S8">
-        <v>0.1413179370649037</v>
+        <v>0.1231912610148729</v>
       </c>
       <c r="T8">
-        <v>0.1413179370649037</v>
+        <v>0.1231912610148729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.63432122202604</v>
+        <v>4.645246</v>
       </c>
       <c r="N9">
-        <v>4.63432122202604</v>
+        <v>13.935738</v>
       </c>
       <c r="O9">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="P9">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="Q9">
-        <v>6309.051169148653</v>
+        <v>6323.940674755973</v>
       </c>
       <c r="R9">
-        <v>6309.051169148653</v>
+        <v>56915.46607280376</v>
       </c>
       <c r="S9">
-        <v>0.2714848198659671</v>
+        <v>0.2370882366319124</v>
       </c>
       <c r="T9">
-        <v>0.2714848198659671</v>
+        <v>0.2370882366319124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.94779648898913</v>
+        <v>2.400438333333334</v>
       </c>
       <c r="N10">
-        <v>1.94779648898913</v>
+        <v>7.201315000000001</v>
       </c>
       <c r="O10">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="P10">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="Q10">
-        <v>2651.68233434369</v>
+        <v>3267.906503425245</v>
       </c>
       <c r="R10">
-        <v>2651.68233434369</v>
+        <v>29411.15853082721</v>
       </c>
       <c r="S10">
-        <v>0.114104558923431</v>
+        <v>0.1225157271743298</v>
       </c>
       <c r="T10">
-        <v>0.114104558923431</v>
+        <v>0.1225157271743298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.692856364217778</v>
+        <v>0.992483</v>
       </c>
       <c r="N11">
-        <v>0.692856364217778</v>
+        <v>2.977449</v>
       </c>
       <c r="O11">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="P11">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="Q11">
-        <v>943.237649117732</v>
+        <v>1351.145582538327</v>
       </c>
       <c r="R11">
-        <v>943.237649117732</v>
+        <v>12160.31024284494</v>
       </c>
       <c r="S11">
-        <v>0.04058846511084497</v>
+        <v>0.05065523857232755</v>
       </c>
       <c r="T11">
-        <v>0.04058846511084497</v>
+        <v>0.05065523857232756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.10654255261182</v>
+        <v>3.147722666666667</v>
       </c>
       <c r="N12">
-        <v>3.10654255261182</v>
+        <v>9.443168</v>
       </c>
       <c r="O12">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="P12">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="Q12">
-        <v>749.070599931934</v>
+        <v>790.1004674601173</v>
       </c>
       <c r="R12">
-        <v>749.070599931934</v>
+        <v>7110.904207141056</v>
       </c>
       <c r="S12">
-        <v>0.03223326161687395</v>
+        <v>0.02962132888752902</v>
       </c>
       <c r="T12">
-        <v>0.03223326161687395</v>
+        <v>0.02962132888752902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.41233640656651</v>
+        <v>2.413674</v>
       </c>
       <c r="N13">
-        <v>2.41233640656651</v>
+        <v>7.241022</v>
       </c>
       <c r="O13">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="P13">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="Q13">
-        <v>581.6789078859329</v>
+        <v>605.849103509436</v>
       </c>
       <c r="R13">
-        <v>581.6789078859329</v>
+        <v>5452.641931584923</v>
       </c>
       <c r="S13">
-        <v>0.02503022868152682</v>
+        <v>0.02271363743013289</v>
       </c>
       <c r="T13">
-        <v>0.02503022868152682</v>
+        <v>0.02271363743013289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.63432122202604</v>
+        <v>4.645246</v>
       </c>
       <c r="N14">
-        <v>4.63432122202604</v>
+        <v>13.935738</v>
       </c>
       <c r="O14">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="P14">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="Q14">
-        <v>1117.45894970656</v>
+        <v>1165.989327755444</v>
       </c>
       <c r="R14">
-        <v>1117.45894970656</v>
+        <v>10493.903949799</v>
       </c>
       <c r="S14">
-        <v>0.04808538297362319</v>
+        <v>0.04371362222809506</v>
       </c>
       <c r="T14">
-        <v>0.04808538297362319</v>
+        <v>0.04371362222809505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.94779648898913</v>
+        <v>2.400438333333334</v>
       </c>
       <c r="N15">
-        <v>1.94779648898913</v>
+        <v>7.201315000000001</v>
       </c>
       <c r="O15">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="P15">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="Q15">
-        <v>469.6658937846254</v>
+        <v>602.5268583411367</v>
       </c>
       <c r="R15">
-        <v>469.6658937846254</v>
+        <v>5422.74172507023</v>
       </c>
       <c r="S15">
-        <v>0.02021019597920195</v>
+        <v>0.02258908451461375</v>
       </c>
       <c r="T15">
-        <v>0.02021019597920195</v>
+        <v>0.02258908451461375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.692856364217778</v>
+        <v>0.992483</v>
       </c>
       <c r="N16">
-        <v>0.692856364217778</v>
+        <v>2.977449</v>
       </c>
       <c r="O16">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="P16">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="Q16">
-        <v>167.0662235014044</v>
+        <v>249.120194275762</v>
       </c>
       <c r="R16">
-        <v>167.0662235014044</v>
+        <v>2242.081748481858</v>
       </c>
       <c r="S16">
-        <v>0.007189027696392343</v>
+        <v>0.009339661867166232</v>
       </c>
       <c r="T16">
-        <v>0.007189027696392343</v>
+        <v>0.009339661867166229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.10654255261182</v>
+        <v>3.147722666666667</v>
       </c>
       <c r="N17">
-        <v>3.10654255261182</v>
+        <v>9.443168</v>
       </c>
       <c r="O17">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="P17">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="Q17">
-        <v>414.7195834351095</v>
+        <v>818.5071420782543</v>
       </c>
       <c r="R17">
-        <v>414.7195834351095</v>
+        <v>7366.564278704288</v>
       </c>
       <c r="S17">
-        <v>0.01784580095884094</v>
+        <v>0.03068631174239277</v>
       </c>
       <c r="T17">
-        <v>0.01784580095884094</v>
+        <v>0.03068631174239277</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.41233640656651</v>
+        <v>2.413674</v>
       </c>
       <c r="N18">
-        <v>2.41233640656651</v>
+        <v>7.241022</v>
       </c>
       <c r="O18">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="P18">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="Q18">
-        <v>322.0439226868118</v>
+        <v>627.6313439457781</v>
       </c>
       <c r="R18">
-        <v>322.0439226868118</v>
+        <v>5648.682095512002</v>
       </c>
       <c r="S18">
-        <v>0.01385787402820453</v>
+        <v>0.02353026637093869</v>
       </c>
       <c r="T18">
-        <v>0.01385787402820453</v>
+        <v>0.02353026637093869</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.63432122202604</v>
+        <v>4.645246</v>
       </c>
       <c r="N19">
-        <v>4.63432122202604</v>
+        <v>13.935738</v>
       </c>
       <c r="O19">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="P19">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="Q19">
-        <v>618.6761437042786</v>
+        <v>1207.910426154795</v>
       </c>
       <c r="R19">
-        <v>618.6761437042786</v>
+        <v>10871.19383539316</v>
       </c>
       <c r="S19">
-        <v>0.02662225696476512</v>
+        <v>0.04528526873908302</v>
       </c>
       <c r="T19">
-        <v>0.02662225696476512</v>
+        <v>0.04528526873908302</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.94779648898913</v>
+        <v>2.400438333333334</v>
       </c>
       <c r="N20">
-        <v>1.94779648898913</v>
+        <v>7.201315000000001</v>
       </c>
       <c r="O20">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="P20">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="Q20">
-        <v>260.0284190058151</v>
+        <v>624.189653287463</v>
       </c>
       <c r="R20">
-        <v>260.0284190058151</v>
+        <v>5617.706879587166</v>
       </c>
       <c r="S20">
-        <v>0.01118928450589059</v>
+        <v>0.02340123537410001</v>
       </c>
       <c r="T20">
-        <v>0.01118928450589059</v>
+        <v>0.02340123537410001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.692856364217778</v>
+        <v>0.992483</v>
       </c>
       <c r="N21">
-        <v>0.692856364217778</v>
+        <v>2.977449</v>
       </c>
       <c r="O21">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="P21">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="Q21">
-        <v>92.49546654597725</v>
+        <v>258.0768733198177</v>
       </c>
       <c r="R21">
-        <v>92.49546654597725</v>
+        <v>2322.691859878359</v>
       </c>
       <c r="S21">
-        <v>0.003980172992802296</v>
+        <v>0.009675453005927207</v>
       </c>
       <c r="T21">
-        <v>0.003980172992802296</v>
+        <v>0.009675453005927207</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.10654255261182</v>
+        <v>3.147722666666667</v>
       </c>
       <c r="N22">
-        <v>3.10654255261182</v>
+        <v>9.443168</v>
       </c>
       <c r="O22">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="P22">
-        <v>0.2428152444972001</v>
+        <v>0.231457616337308</v>
       </c>
       <c r="Q22">
-        <v>77.23961549933669</v>
+        <v>85.23192329533155</v>
       </c>
       <c r="R22">
-        <v>77.23961549933669</v>
+        <v>767.0873096579841</v>
       </c>
       <c r="S22">
-        <v>0.003323698372093501</v>
+        <v>0.003195394681594848</v>
       </c>
       <c r="T22">
-        <v>0.003323698372093501</v>
+        <v>0.003195394681594848</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.41233640656651</v>
+        <v>2.413674</v>
       </c>
       <c r="N23">
-        <v>2.41233640656651</v>
+        <v>7.241022</v>
       </c>
       <c r="O23">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="P23">
-        <v>0.1885543315276574</v>
+        <v>0.1774817192668824</v>
       </c>
       <c r="Q23">
-        <v>59.97919981543273</v>
+        <v>65.355845801304</v>
       </c>
       <c r="R23">
-        <v>59.97919981543273</v>
+        <v>588.202612211736</v>
       </c>
       <c r="S23">
-        <v>0.002580965318085207</v>
+        <v>0.002450228904972493</v>
       </c>
       <c r="T23">
-        <v>0.002580965318085207</v>
+        <v>0.002450228904972493</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.63432122202604</v>
+        <v>4.645246</v>
       </c>
       <c r="N24">
-        <v>4.63432122202604</v>
+        <v>13.935738</v>
       </c>
       <c r="O24">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="P24">
-        <v>0.3622302999386683</v>
+        <v>0.3415731563158936</v>
       </c>
       <c r="Q24">
-        <v>115.225587040087</v>
+        <v>125.7808557763493</v>
       </c>
       <c r="R24">
-        <v>115.225587040087</v>
+        <v>1132.027701987144</v>
       </c>
       <c r="S24">
-        <v>0.004958272948315547</v>
+        <v>0.004715597889320536</v>
       </c>
       <c r="T24">
-        <v>0.004958272948315547</v>
+        <v>0.004715597889320536</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.94779648898913</v>
+        <v>2.400438333333334</v>
       </c>
       <c r="N25">
-        <v>1.94779648898913</v>
+        <v>7.201315000000001</v>
       </c>
       <c r="O25">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="P25">
-        <v>0.1522447134377888</v>
+        <v>0.1765084772815756</v>
       </c>
       <c r="Q25">
-        <v>48.42909740733804</v>
+        <v>64.99745929602446</v>
       </c>
       <c r="R25">
-        <v>48.42909740733804</v>
+        <v>584.9771336642201</v>
       </c>
       <c r="S25">
-        <v>0.002083952789952837</v>
+        <v>0.002436792785163751</v>
       </c>
       <c r="T25">
-        <v>0.002083952789952837</v>
+        <v>0.002436792785163751</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.692856364217778</v>
+        <v>0.992483</v>
       </c>
       <c r="N26">
-        <v>0.692856364217778</v>
+        <v>2.977449</v>
       </c>
       <c r="O26">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="P26">
-        <v>0.05415541059868524</v>
+        <v>0.0729790307983403</v>
       </c>
       <c r="Q26">
-        <v>17.22685534226985</v>
+        <v>26.87378904873467</v>
       </c>
       <c r="R26">
-        <v>17.22685534226985</v>
+        <v>241.864101438612</v>
       </c>
       <c r="S26">
-        <v>0.000741288918739947</v>
+        <v>0.00100751407783065</v>
       </c>
       <c r="T26">
-        <v>0.000741288918739947</v>
+        <v>0.00100751407783065</v>
       </c>
     </row>
   </sheetData>
